--- a/数据库文档/t_station_in.xlsx
+++ b/数据库文档/t_station_in.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\doc\数据库文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lawsvn\doc\数据库文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7824" xr2:uid="{9C510BE8-3202-4653-930B-F3A61A9A3812}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="t_station_in" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -139,13 +139,20 @@
   </si>
   <si>
     <t>站内设备</t>
+  </si>
+  <si>
+    <t>汽油加油加气站设计与施工规范</t>
+  </si>
+  <si>
+    <t>站址选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,19 +511,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C178971-5977-4C19-863E-6183E3DDB997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -570,11 +579,17 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -587,11 +602,17 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -604,11 +625,17 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -621,11 +648,17 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -638,11 +671,17 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -658,11 +697,17 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -678,11 +723,17 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,11 +749,17 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -718,11 +775,17 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -738,8 +801,14 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -750,14 +819,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238E1CDD-CF10-42E2-B6D9-55AE6B7AB984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>